--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_LSPMW_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_LSPMW_No_lineal_Estacionario_SETAR.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.7203766488883316</v>
+        <v>-0.7093769247427983</v>
       </c>
       <c r="D2">
-        <v>0.4713933984783067</v>
+        <v>0.4855414028498246</v>
       </c>
       <c r="E2">
         <v>0.6884605804196946</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.5565185470515694</v>
+        <v>-0.5714460091684388</v>
       </c>
       <c r="D3">
-        <v>0.57793058236672</v>
+        <v>0.5734897604977247</v>
       </c>
       <c r="E3">
         <v>0.6884605804196946</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.913774607330572</v>
+        <v>1.668582464715588</v>
       </c>
       <c r="D4">
-        <v>0.0558188276928524</v>
+        <v>0.1093715646692899</v>
       </c>
       <c r="E4">
         <v>0.6884605804196946</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.5100971262399865</v>
+        <v>0.5390548527508098</v>
       </c>
       <c r="D5">
-        <v>0.6100504654359624</v>
+        <v>0.5952626418708618</v>
       </c>
       <c r="E5">
         <v>0.6884605804196946</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.2254393477324293</v>
+        <v>0.2211409009189114</v>
       </c>
       <c r="D6">
-        <v>0.8216649401848368</v>
+        <v>0.8270223212614127</v>
       </c>
       <c r="E6">
         <v>0.7104974610269112</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>2.40704330632026</v>
+        <v>2.212980626857715</v>
       </c>
       <c r="D7">
-        <v>0.01618961480897441</v>
+        <v>0.03757897336969873</v>
       </c>
       <c r="E7">
         <v>0.7104974610269112</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.117141808426016</v>
+        <v>1.039332685913267</v>
       </c>
       <c r="D8">
-        <v>0.2640935295143187</v>
+        <v>0.309938551999825</v>
       </c>
       <c r="E8">
         <v>0.7104974610269112</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>2.192102111794638</v>
+        <v>2.562143847588255</v>
       </c>
       <c r="D9">
-        <v>0.02850900886553775</v>
+        <v>0.01777144486479121</v>
       </c>
       <c r="E9">
         <v>0.7032042572975744</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1.033482396140267</v>
+        <v>1.4586859003467</v>
       </c>
       <c r="D10">
-        <v>0.3015270388622262</v>
+        <v>0.1587820250708607</v>
       </c>
       <c r="E10">
         <v>0.7032042572975744</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.186949076146301</v>
+        <v>-1.38577060929277</v>
       </c>
       <c r="D11">
-        <v>0.235415616707443</v>
+        <v>0.1797053147528764</v>
       </c>
       <c r="E11">
         <v>0.6395536530884578</v>
